--- a/SRC_EU_833.xlsx
+++ b/SRC_EU_833.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\Prace\sanctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9775E3-7537-4F15-A11D-1C6E5DEDD465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A95075-5510-428C-A811-F5B7DBAE73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8430" yWindow="540" windowWidth="16620" windowHeight="13920" xr2:uid="{EDD6B87A-91BA-4286-9642-A8A775739272}"/>
   </bookViews>
@@ -217,28 +217,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
@@ -279,16 +257,38 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C15FF8F1-72C1-4B3E-9A44-C498A25DCDFB}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
     <tableStyle name="TableStyleQueryResult" pivot="0" count="3" xr9:uid="{026140AC-39C5-4A14-ABDA-4B13D5D4B090}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -303,10 +303,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FEB6A1-2D9A-452E-852F-F2CC9558D320}" name="SRC_CUSTOM" displayName="SRC_CUSTOM" ref="A1:F38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FEB6A1-2D9A-452E-852F-F2CC9558D320}" name="SRC_EU_833" displayName="SRC_EU_833" ref="A1:F38" totalsRowShown="0">
   <autoFilter ref="A1:F38" xr:uid="{E90307BC-F813-4BA3-9CD2-86DE3746E948}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5B4EC215-649A-4A41-9BD8-9E9C19DB75D5}" name="Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5B4EC215-649A-4A41-9BD8-9E9C19DB75D5}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B49A5ED5-9D8B-4E2A-ABD3-393EBBC8C359}" name="ID"/>
     <tableColumn id="6" xr3:uid="{5AAF16C6-3236-44D5-87E0-75B7E86300D3}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1116BCAA-0965-4E68-A5C6-01FE7CF9E89E}" name="DetailSource"/>

--- a/SRC_EU_833.xlsx
+++ b/SRC_EU_833.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\Prace\sanctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A95075-5510-428C-A811-F5B7DBAE73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB9B67-DA7E-4A75-B73E-ACBC50D77816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="540" windowWidth="16620" windowHeight="13920" xr2:uid="{EDD6B87A-91BA-4286-9642-A8A775739272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDD6B87A-91BA-4286-9642-A8A775739272}"/>
   </bookViews>
   <sheets>
     <sheet name="SRC_CZ" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CD062-AC6C-4931-BA59-0D2D547283A5}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1107,6 +1109,9 @@
       <c r="A29" s="1">
         <v>41851</v>
       </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>41851</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1139,7 +1144,7 @@
         <v>41851</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1156,7 +1161,7 @@
         <v>41851</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1173,7 +1178,7 @@
         <v>41851</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>

--- a/SRC_EU_833.xlsx
+++ b/SRC_EU_833.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\Prace\sanctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB9B67-DA7E-4A75-B73E-ACBC50D77816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031AA76B-A853-4F61-8E25-FCA555F1DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDD6B87A-91BA-4286-9642-A8A775739272}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1042,7 +1042,7 @@
         <v>41851</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1059,7 +1059,7 @@
         <v>41851</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1076,7 +1076,7 @@
         <v>41851</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1093,7 +1093,7 @@
         <v>41851</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1110,7 +1110,7 @@
         <v>41851</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         <v>41851</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1144,7 +1144,7 @@
         <v>41851</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1161,7 +1161,7 @@
         <v>41851</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1178,7 +1178,7 @@
         <v>41851</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1195,7 +1195,7 @@
         <v>41851</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1212,7 +1212,7 @@
         <v>41851</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1229,7 +1229,7 @@
         <v>41851</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1246,7 +1246,7 @@
         <v>41851</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1263,7 +1263,7 @@
         <v>41851</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>

--- a/SRC_EU_833.xlsx
+++ b/SRC_EU_833.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\Prace\sanctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031AA76B-A853-4F61-8E25-FCA555F1DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD4A585-BB46-4D1B-9018-DB0FB165579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDD6B87A-91BA-4286-9642-A8A775739272}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>VTB BANK</t>
   </si>
   <si>
-    <t>EU</t>
-  </si>
-  <si>
     <t>RT- Russia Today English</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Alfa Bank</t>
+  </si>
+  <si>
+    <t>EU_833</t>
   </si>
 </sst>
 </file>
@@ -616,9 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CD062-AC6C-4931-BA59-0D2D547283A5}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -654,13 +652,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -671,13 +669,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -739,13 +737,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -756,13 +754,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -773,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -807,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,13 +822,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -841,13 +839,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -858,13 +856,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -875,13 +873,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -892,13 +890,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -909,13 +907,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -926,13 +924,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -943,13 +941,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -960,10 +958,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -977,13 +975,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -994,13 +992,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1011,13 +1009,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1028,13 +1026,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1045,13 +1043,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
         <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1062,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1079,13 +1077,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1096,13 +1094,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1113,13 +1111,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1130,13 +1128,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1147,13 +1145,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1164,13 +1162,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1181,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1198,13 +1196,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1215,13 +1213,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1232,13 +1230,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1249,13 +1247,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1266,13 +1264,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
